--- a/pastResults/meets.xlsx
+++ b/pastResults/meets.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/XC-rData/pastResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB5B00-7F7F-9247-9BDD-918E9DAC3406}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC3F4E9-3667-BE4C-A511-970F21F87F23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="940" windowWidth="29300" windowHeight="17240" xr2:uid="{E219ED79-6B8D-9E40-9250-119718A14AD1}"/>
+    <workbookView xWindow="16840" yWindow="9460" windowWidth="30340" windowHeight="18380" activeTab="1" xr2:uid="{E219ED79-6B8D-9E40-9250-119718A14AD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="races" sheetId="1" r:id="rId1"/>
+    <sheet name="results" sheetId="3" r:id="rId2"/>
+    <sheet name="lists" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +36,108 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>Story City</t>
+  </si>
+  <si>
+    <t>Held</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>JH_Girls</t>
+  </si>
+  <si>
+    <t>JH_Boys</t>
+  </si>
+  <si>
+    <t>JV_Girls</t>
+  </si>
+  <si>
+    <t>JV_Boys</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>RID</t>
+  </si>
+  <si>
+    <t>Humid</t>
+  </si>
+  <si>
+    <t>Windy</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t>V_Girls1</t>
+  </si>
+  <si>
+    <t>V_Boys1</t>
+  </si>
+  <si>
+    <t>V_Girls2</t>
+  </si>
+  <si>
+    <t>V_Boys2</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>Norseman Invitational, Roland Story Cross Country </t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>runners</t>
+  </si>
+  <si>
+    <t>teamPlace</t>
+  </si>
+  <si>
+    <t>teamsFull</t>
+  </si>
+  <si>
+    <t>teamPoints</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Andrew Stumbo First Place 16:37.7</t>
+  </si>
+  <si>
+    <t>Andrew Stumbo skipped this race.</t>
+  </si>
+  <si>
+    <t>River Bend Golf Course</t>
+  </si>
+  <si>
+    <t>avgTime</t>
+  </si>
+  <si>
+    <t>spread</t>
   </si>
   <si>
     <r>
@@ -41,7 +145,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -52,87 +155,35 @@
     </r>
   </si>
   <si>
-    <t>Story City</t>
-  </si>
-  <si>
-    <t>Held</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>JH_Girls</t>
-  </si>
-  <si>
-    <t>JH_Boys</t>
-  </si>
-  <si>
-    <t>JV_Girls</t>
-  </si>
-  <si>
-    <t>JV_Boys</t>
-  </si>
-  <si>
-    <t>V_Girls_A</t>
-  </si>
-  <si>
-    <t>V_Boys_A</t>
-  </si>
-  <si>
-    <t>V_Girls_B</t>
-  </si>
-  <si>
-    <t>V_Boys_B</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Varsity Girls 264 pts 10/11. Varsity Boys 109 pts  2/14. Andrew Stumbo First Place 16:37.7</t>
-  </si>
-  <si>
-    <t>RID</t>
-  </si>
-  <si>
-    <t>Humid</t>
-  </si>
-  <si>
-    <t>Varsity Girls 171 pts 6/13  no individual results. Varsity Boys 179 pts  8/14. Andrew Stumbo skipped this race.</t>
-  </si>
-  <si>
-    <t>Varsity Girls 149 pts 5/11. Varsity Boys 152 pts  8/13.</t>
-  </si>
-  <si>
-    <t>Windy</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>Varsity Girls 288 pts 12/14. Varsity Boys 224 pts  7/16.</t>
+    <t>24:41</t>
+  </si>
+  <si>
+    <t>4:34</t>
+  </si>
+  <si>
+    <t>18:52</t>
+  </si>
+  <si>
+    <t>1:41</t>
+  </si>
+  <si>
+    <t>17:58</t>
+  </si>
+  <si>
+    <t>2:18</t>
+  </si>
+  <si>
+    <t>15:37</t>
+  </si>
+  <si>
+    <t>3:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,8 +201,35 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,18 +255,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -505,188 +599,675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDB8A84-7FAD-E641-A600-4D1D45E60121}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="6"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="47" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="26.1640625" style="2" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="13" width="10.83203125" style="3"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="5">
+        <v>42271</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>42635</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>42999</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>43363</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>42271</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B6" s="5">
+        <v>43734</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="5">
-        <v>172</v>
-      </c>
-      <c r="N2" s="5">
-        <v>194</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>42635</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="6">
-        <v>207</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>42999</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="6">
-        <v>138</v>
-      </c>
-      <c r="N4" s="6">
-        <v>251</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>42999</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="6">
-        <v>155</v>
-      </c>
-      <c r="N5" s="6">
-        <v>260</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5672BBDE-AF32-6945-B942-94CA81395B5B}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="57.83203125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>42271</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <v>172</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>42271</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3">
+        <v>194</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3">
+        <v>109</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1.2577199074074072E-2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>42635</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>42635</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>207</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3">
+        <v>179</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1.3333217592592593E-2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <v>42999</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3">
+        <v>138</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3">
+        <v>149</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>42999</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>251</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3">
+        <v>152</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8">
+        <v>42999</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>96</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>236</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8">
+        <v>42999</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3">
+        <v>142</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3">
+        <v>237</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8">
+        <v>43363</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>155</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3">
+        <v>288</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.1368055555555556</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8">
+        <v>43363</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
+        <v>260</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3">
+        <v>16</v>
+      </c>
+      <c r="H11" s="3">
+        <v>224</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="J11" s="11">
+        <v>9.8611111111111108E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8">
+        <v>43363</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>126</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3">
+        <v>230</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.14097222222222222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8">
+        <v>43363</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>171</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3">
+        <v>189</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.59861111111111109</v>
+      </c>
+      <c r="J13" s="11">
+        <v>4.4444444444444446E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D310B5A0-F278-8641-89EA-61EAF253E1A9}">
+          <x14:formula1>
+            <xm:f>lists!$A$1:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC44D294-7A5B-A142-87A1-437FDEC5310E}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Race Type" sqref="A1:A8" xr:uid="{E82283AE-B9EE-4948-8353-0E3F417E664D}">
+      <formula1>$A$1:$A$8</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pastResults/meets.xlsx
+++ b/pastResults/meets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/XC-rData/pastResults/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/landvizMedia/XC-rData/pastResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC3F4E9-3667-BE4C-A511-970F21F87F23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E806B-BA96-4C40-9DE3-73B1D37A6395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="9460" windowWidth="30340" windowHeight="18380" activeTab="1" xr2:uid="{E219ED79-6B8D-9E40-9250-119718A14AD1}"/>
+    <workbookView xWindow="520" yWindow="2360" windowWidth="30340" windowHeight="18380" xr2:uid="{E219ED79-6B8D-9E40-9250-119718A14AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="races" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -140,21 +140,6 @@
     <t>spread</t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Norseman Invitational, Roland Story Cross Country </t>
-    </r>
-  </si>
-  <si>
     <t>24:41</t>
   </si>
   <si>
@@ -177,22 +162,26 @@
   </si>
   <si>
     <t>3:48</t>
+  </si>
+  <si>
+    <t>top 10 Avg</t>
+  </si>
+  <si>
+    <t>top 50 Avg</t>
+  </si>
+  <si>
+    <t>No individual HS Girls data</t>
+  </si>
+  <si>
+    <t>10 mph SE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -216,31 +205,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,34 +253,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="46" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -601,165 +612,181 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDB8A84-7FAD-E641-A600-4D1D45E60121}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="47" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="26.1640625" style="2" customWidth="1"/>
-    <col min="6" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="13" width="10.83203125" style="3"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="47" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="26.1640625" style="1" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>42271</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="9">
         <v>42635</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <v>42999</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="9">
         <v>43363</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="9">
         <v>43734</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -769,442 +796,669 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5672BBDE-AF32-6945-B942-94CA81395B5B}">
-  <dimension ref="A1:M14"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="3"/>
-    <col min="3" max="3" width="57.83203125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="57.83203125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="9">
+        <v>42271</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9">
+        <v>42635</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="9">
+        <v>42999</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9">
+        <v>43363</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>43734</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B10" s="12">
         <v>42271</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E10" s="6">
         <v>172</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F10" s="6">
         <v>10</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G10" s="6">
         <v>11</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H10" s="6">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="K10" s="16">
+        <v>1.4629166666666665E-2</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1.5750694444444446E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B11" s="12">
         <v>42271</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E11" s="6">
         <v>194</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G11" s="6">
         <v>14</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H11" s="6">
         <v>109</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I11" s="7">
         <v>1.2577199074074072E-2</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K11" s="16">
+        <v>1.1950000000000001E-2</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1.2708194444444446E-2</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B12" s="12">
         <v>42635</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F12" s="6">
         <v>6</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G12" s="6">
         <v>13</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H12" s="6">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B13" s="12">
         <v>42635</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E13" s="6">
         <v>207</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F13" s="6">
         <v>8</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G13" s="6">
         <v>14</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H13" s="6">
         <v>179</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I13" s="7">
         <v>1.3333217592592593E-2</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K13" s="16">
+        <v>1.2077083333333334E-2</v>
+      </c>
+      <c r="L13" s="16">
+        <v>1.2924166666666667E-2</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="14" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B14" s="12">
         <v>42999</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E14" s="6">
         <v>138</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F14" s="6">
         <v>5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G14" s="6">
         <v>11</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H14" s="6">
         <v>149</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K14" s="16">
+        <v>1.5281944444444445E-2</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1.6599583333333334E-2</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12">
+        <v>42999</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6">
+        <v>251</v>
+      </c>
+      <c r="F15" s="6">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6">
+        <v>13</v>
+      </c>
+      <c r="H15" s="6">
+        <v>152</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="J15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1.2207638888888888E-2</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1.2910277777777779E-2</v>
+      </c>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B16" s="12">
         <v>42999</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="6">
+        <v>96</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6">
+        <v>236</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="16">
+        <v>9.7381944444444434E-3</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1.0977500000000001E-2</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12">
+        <v>42999</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6">
+        <v>142</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6">
+        <v>237</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="16">
+        <v>8.8868055555555558E-3</v>
+      </c>
+      <c r="L17" s="16">
+        <v>9.8751388888888899E-3</v>
+      </c>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12">
+        <v>43363</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6">
+        <v>155</v>
+      </c>
+      <c r="F18" s="6">
+        <v>12</v>
+      </c>
+      <c r="G18" s="6">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6">
+        <v>288</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1.1368055555555556</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.15625</v>
+      </c>
+      <c r="K18" s="16">
+        <v>1.5811111111111113E-2</v>
+      </c>
+      <c r="L18" s="16">
+        <v>1.7060277777777778E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12">
+        <v>43363</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>251</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E19" s="6">
+        <v>260</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6">
+        <v>224</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.82361111111111107</v>
+      </c>
+      <c r="J19" s="15">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="K19" s="16">
+        <v>1.2404861111111111E-2</v>
+      </c>
+      <c r="L19" s="16">
+        <v>1.3148194444444443E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12">
+        <v>43363</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="3">
+      <c r="E20" s="6">
+        <v>126</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6">
+        <v>11</v>
+      </c>
+      <c r="H20" s="6">
+        <v>230</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="K20" s="16">
+        <v>9.9722222222222209E-3</v>
+      </c>
+      <c r="L20" s="16">
+        <v>1.1136527777777778E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12">
+        <v>43363</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6">
+        <v>171</v>
+      </c>
+      <c r="F21" s="6">
+        <v>6</v>
+      </c>
+      <c r="G21" s="6">
         <v>13</v>
       </c>
-      <c r="H7" s="3">
-        <v>152</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8">
-        <v>42999</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
-        <v>96</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
-        <v>236</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="B9" s="8">
-        <v>42999</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
-        <v>142</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3">
-        <v>237</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8">
-        <v>43363</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3">
-        <v>155</v>
-      </c>
-      <c r="F10" s="3">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3">
-        <v>288</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1.1368055555555556</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.15625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8">
-        <v>43363</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3">
-        <v>260</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3">
-        <v>224</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0.82361111111111107</v>
-      </c>
-      <c r="J11" s="11">
-        <v>9.8611111111111108E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8">
-        <v>43363</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>126</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3">
-        <v>230</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.14097222222222222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8">
-        <v>43363</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>171</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6</v>
-      </c>
-      <c r="G13" s="3">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="H21" s="6">
         <v>189</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I21" s="15">
         <v>0.59861111111111109</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J21" s="15">
         <v>4.4444444444444446E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-    </row>
+      <c r="K21" s="16">
+        <v>8.665277777777777E-3</v>
+      </c>
+      <c r="L21" s="16">
+        <v>9.5077777777777782E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D310B5A0-F278-8641-89EA-61EAF253E1A9}">
           <x14:formula1>
             <xm:f>lists!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D13</xm:sqref>
+          <xm:sqref>D10:D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1223,42 +1477,42 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/pastResults/meets.xlsx
+++ b/pastResults/meets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/landvizMedia/XC-rData/pastResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E806B-BA96-4C40-9DE3-73B1D37A6395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5312139-D2CB-5B4C-8813-C76243057E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="2360" windowWidth="30340" windowHeight="18380" xr2:uid="{E219ED79-6B8D-9E40-9250-119718A14AD1}"/>
+    <workbookView xWindow="6000" yWindow="2840" windowWidth="30340" windowHeight="18380" activeTab="1" xr2:uid="{E219ED79-6B8D-9E40-9250-119718A14AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="races" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -174,13 +174,47 @@
   </si>
   <si>
     <t>10 mph SE</t>
+  </si>
+  <si>
+    <t>Humboldt</t>
+  </si>
+  <si>
+    <t>Sheldon Park</t>
+  </si>
+  <si>
+    <t>Humboldt High School Cross Country Meet</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24:36.70 </t>
+    </r>
+  </si>
+  <si>
+    <t>Ran Varsity and JV at same time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -253,47 +287,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="47" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="47" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="46" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -610,183 +652,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDB8A84-7FAD-E641-A600-4D1D45E60121}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="26.1640625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="13" width="10.83203125" style="2"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="47" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="26.1640625" style="2" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="13" width="10.83203125" style="3"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="11">
         <v>42271</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="11">
         <v>42635</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>42999</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>43363</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>43734</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="5">
-        <v>71</v>
+      <c r="I6" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>43725</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -799,655 +908,808 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="6"/>
-    <col min="3" max="3" width="57.83203125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="2" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="57.83203125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="11">
         <v>42271</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="11">
         <v>42635</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="9">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
         <v>42999</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
         <v>43363</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
         <v>43734</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>42271</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>172</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <v>10</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="8">
         <v>11</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <v>264</v>
       </c>
-      <c r="K10" s="16">
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="18">
         <v>1.4629166666666665E-2</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="18">
         <v>1.5750694444444446E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>42271</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="8">
         <v>194</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="8">
         <v>14</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="8">
         <v>109</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <v>1.2577199074074072E-2</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="18">
         <v>1.1950000000000001E-2</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="18">
         <v>1.2708194444444446E-2</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <v>42635</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="8">
         <v>6</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="8">
         <v>13</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="8">
         <v>171</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="6" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>2</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>42635</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <v>207</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="8">
         <v>8</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="8">
         <v>14</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="8">
         <v>179</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="9">
         <v>1.3333217592592593E-2</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="18">
         <v>1.2077083333333334E-2</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="18">
         <v>1.2924166666666667E-2</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>42999</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="8">
         <v>138</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="8">
         <v>5</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="8">
         <v>11</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="8">
         <v>149</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="18">
         <v>1.5281944444444445E-2</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="18">
         <v>1.6599583333333334E-2</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>3</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="14">
         <v>42999</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>251</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="8">
         <v>8</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="8">
         <v>13</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="8">
         <v>152</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="18">
         <v>1.2207638888888888E-2</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="18">
         <v>1.2910277777777779E-2</v>
       </c>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="14">
         <v>42999</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="8">
         <v>96</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="8">
         <v>10</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <v>10</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="8">
         <v>236</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="18">
         <v>9.7381944444444434E-3</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="18">
         <v>1.0977500000000001E-2</v>
       </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>3</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <v>42999</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>142</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="8">
         <v>10</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="8">
         <v>12</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="8">
         <v>237</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="18">
         <v>8.8868055555555558E-3</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="18">
         <v>9.8751388888888899E-3</v>
       </c>
-      <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>4</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="14">
         <v>43363</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>155</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="8">
         <v>12</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="8">
         <v>14</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="8">
         <v>288</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="19">
         <v>1.1368055555555556</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="17">
         <v>0.15625</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="18">
         <v>1.5811111111111113E-2</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="18">
         <v>1.7060277777777778E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="14">
         <v>43363</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="8">
         <v>260</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="8">
         <v>7</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="8">
         <v>16</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="8">
         <v>224</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="17">
         <v>0.82361111111111107</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="17">
         <v>9.8611111111111108E-2</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="18">
         <v>1.2404861111111111E-2</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="18">
         <v>1.3148194444444443E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>4</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>43363</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>126</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="8">
         <v>9</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="8">
         <v>11</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="8">
         <v>230</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="17">
         <v>0.76388888888888884</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="17">
         <v>0.14097222222222222</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="18">
         <v>9.9722222222222209E-3</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="18">
         <v>1.1136527777777778E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>4</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="14">
         <v>43363</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="8">
         <v>171</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="8">
         <v>6</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="8">
         <v>13</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="8">
         <v>189</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="17">
         <v>0.59861111111111109</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="17">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="18">
         <v>8.665277777777777E-3</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="18">
         <v>9.5077777777777782E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>5</v>
+      </c>
+      <c r="B22" s="14">
+        <v>43734</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="8">
+        <v>178</v>
+      </c>
+      <c r="F22" s="8">
+        <v>9</v>
+      </c>
+      <c r="G22" s="8">
+        <v>15</v>
+      </c>
+      <c r="H22" s="8">
+        <v>281</v>
+      </c>
+      <c r="I22" s="21">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0.15902777777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>5</v>
+      </c>
+      <c r="B23" s="14">
+        <v>43734</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="8">
+        <v>262</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5</v>
+      </c>
+      <c r="G23" s="8">
+        <v>16</v>
+      </c>
+      <c r="H23" s="8">
+        <v>147</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="J23" s="20">
+        <v>7.9861111111111105E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>5</v>
+      </c>
+      <c r="B24" s="14">
+        <v>43735</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="8">
+        <v>148</v>
+      </c>
+      <c r="F24" s="8">
+        <v>7</v>
+      </c>
+      <c r="G24" s="8">
+        <v>13</v>
+      </c>
+      <c r="H24" s="8">
+        <v>201</v>
+      </c>
+      <c r="I24" s="20">
+        <v>0.8930555555555556</v>
+      </c>
+      <c r="J24" s="20">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>5</v>
+      </c>
+      <c r="B25" s="14">
+        <v>43734</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8">
+        <v>134</v>
+      </c>
+      <c r="F25" s="8">
+        <v>11</v>
+      </c>
+      <c r="G25" s="8">
+        <v>14</v>
+      </c>
+      <c r="H25" s="8">
+        <v>292</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0.7402777777777777</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0.40138888888888885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>5</v>
+      </c>
+      <c r="B26" s="14">
+        <v>43734</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="8">
+        <v>195</v>
+      </c>
+      <c r="F26" s="8">
+        <v>10</v>
+      </c>
+      <c r="G26" s="8">
+        <v>4</v>
+      </c>
+      <c r="H26" s="8">
+        <v>218</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0.125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1458,7 +1720,7 @@
           <x14:formula1>
             <xm:f>lists!$A$1:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D10:D21</xm:sqref>
+          <xm:sqref>D10:D26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1477,42 +1739,42 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
